--- a/Guatemala/CENSO 2018/Cuadro A7 - Población de 4 años y más por idioma materno.xlsx
+++ b/Guatemala/CENSO 2018/Cuadro A7 - Población de 4 años y más por idioma materno.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Comunicaciones REDD Dropbox\Patricio Emanuelli\0000 DOCUMENTACIÓN REDD+ Guatemala\MRV_REDD_Guatemala\BD_GT\CENSO 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-MUNI\Guatemala\CENSO 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DCFBA0-D386-414A-992D-495851754AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A76263A-3736-485E-940F-F5C04D16D7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A7_1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,26 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">A7_1!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">A7_2!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="413">
   <si>
     <t>Características generales de la población. Censo 2018</t>
   </si>
@@ -1184,88 +1193,91 @@
     <t>Código2</t>
   </si>
   <si>
-    <t>Idioma: Achi3</t>
+    <t xml:space="preserve">Idioma: </t>
   </si>
   <si>
-    <t>Idioma: Achi4</t>
+    <t>Idioma: Akateka</t>
   </si>
   <si>
-    <t>Idioma: Achi5</t>
+    <t>Idioma: Awakateka</t>
   </si>
   <si>
-    <t>Idioma: Achi6</t>
+    <t>Idioma: Ch'orti'</t>
   </si>
   <si>
-    <t>Idioma: Achi7</t>
+    <t>Idioma: Chalchiteka</t>
   </si>
   <si>
-    <t>Idioma: Achi8</t>
+    <t>Idioma: Chuj</t>
   </si>
   <si>
-    <t>Idioma: Achi9</t>
+    <t>Idioma: Itza'</t>
   </si>
   <si>
-    <t>Idioma: Achi10</t>
+    <t>Idioma: Ixil</t>
   </si>
   <si>
-    <t>Idioma: Achi11</t>
+    <t>Idioma: Jakalteko /Popti'</t>
   </si>
   <si>
-    <t>Idioma: Achi12</t>
+    <t>Idioma: K'iche'</t>
   </si>
   <si>
-    <t>Idioma: Achi13</t>
+    <t>Idioma: Kaqchikel</t>
   </si>
   <si>
-    <t>Idioma: Achi14</t>
+    <t>Idioma: Mam</t>
   </si>
   <si>
-    <t>Idioma: Achi15</t>
+    <t>Idioma: Mopan</t>
   </si>
   <si>
-    <t>Idioma: Achi16</t>
+    <t>Idioma: Poqomam</t>
   </si>
   <si>
-    <t>Idioma: Achi17</t>
+    <t>Idioma: Poqomchi'</t>
   </si>
   <si>
-    <t>Idioma: Achi18</t>
+    <t>Idioma: Q'anjob'al</t>
   </si>
   <si>
-    <t>Idioma: Achi19</t>
+    <t>Idioma: Q'eqchi'</t>
   </si>
   <si>
-    <t>Idioma: Achi20</t>
+    <t>Idioma: Sakapulteka</t>
   </si>
   <si>
-    <t>Idioma: Achi21</t>
+    <t>Idioma: Sipakapense</t>
   </si>
   <si>
-    <t>Idioma: Achi22</t>
+    <t>Idioma: Tektiteka</t>
   </si>
   <si>
-    <t>Idioma: Achi23</t>
+    <t>Idioma: Tz'utujil</t>
   </si>
   <si>
-    <t>Idioma: Achi24</t>
+    <t>Idioma: Uspanteka</t>
   </si>
   <si>
-    <t>Idioma: Achi25</t>
+    <t>Idioma: Xinka</t>
   </si>
   <si>
-    <t>Idioma: Achi26</t>
+    <t>Idioma: Garífuna</t>
   </si>
   <si>
-    <t>Idioma: Achi27</t>
+    <t>Idioma: Español</t>
   </si>
   <si>
-    <t>Idioma: Achi28</t>
+    <t>Idioma: Inglés</t>
   </si>
   <si>
-    <t>Idioma: Achi29</t>
+    <t>Idioma: Señas</t>
   </si>
   <si>
-    <t>Idioma: Achi30</t>
+    <t>Idioma: Otro idioma</t>
+  </si>
+  <si>
+    <t>Idioma: No habla</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1488,21 +1500,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1525,61 +1522,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2593,6 +2557,55 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2607,43 +2620,43 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B78BBCB2-42A6-4630-95A5-317E0D16E09B}" name="Idioma_Materno" displayName="Idioma_Materno" ref="A4:AH344" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B78BBCB2-42A6-4630-95A5-317E0D16E09B}" name="Idioma_Materno" displayName="Idioma_Materno" ref="A4:AH344" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A4:AH344" xr:uid="{780B7157-5BD7-4E08-8D88-F055B008AF74}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{F100979F-3DEB-47A8-AC27-3239F5292B0D}" name="Código" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{77BE0DE2-FB9C-46DE-8A22-0A3F3285F523}" name="Departamento" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{56C8F763-7255-43C9-A32B-08AAE7B03934}" name="Código2" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{FFEBBFD8-80A0-43F4-A6CA-53D5EF600F90}" name="Municipio" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{D332C6A9-1102-485A-8A88-BC6AE32DE5D1}" name="Total de población de 4 años y más" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{5D01132E-F4B6-4022-A654-F4C721F6AB74}" name="Idioma: Achi" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{E8012357-7764-4163-87A8-EDBE374304BC}" name="Idioma: Achi3" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{AC5805E3-4132-4488-A801-41801FB94FA7}" name="Idioma: Achi4" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{BBE98D8E-4BA5-48C8-87D8-B73F0B61611E}" name="Idioma: Achi5"/>
-    <tableColumn id="10" xr3:uid="{43A75F49-DD33-4990-B6AB-64B2DF271BF7}" name="Idioma: Achi6" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{6658F474-C229-4AFA-A306-2CC690F45230}" name="Idioma: Achi7" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{079BC8EA-7380-49AB-93CF-421C08598250}" name="Idioma: Achi8" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{9129E33E-2C39-40D7-9DCB-F5E2700B31C8}" name="Idioma: Achi9" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{82D6DA95-BBF8-4707-885C-51F9A418825B}" name="Idioma: Achi10" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{0ABFD467-1C4A-4E64-9689-303BB68D71C3}" name="Idioma: Achi11" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{344C44A1-B74C-40B2-AD52-D63DC663EF65}" name="Idioma: Achi12" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{9C9C7542-B7C9-48FB-936D-E851A45AB25F}" name="Idioma: Achi13"/>
-    <tableColumn id="18" xr3:uid="{931D9635-2386-4CEE-BD8B-0836E6FF0D6A}" name="Idioma: Achi14" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{9543983D-D230-47C9-A9E4-D0BEB2A678CD}" name="Idioma: Achi15"/>
-    <tableColumn id="20" xr3:uid="{7E313E26-8E52-48B6-A199-25E1648A8B30}" name="Idioma: Achi16" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{5B8410ED-6963-494A-8D06-40A90F51BB3D}" name="Idioma: Achi17" dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{37B486D7-4877-4D80-95B0-2C64DDF22984}" name="Idioma: Achi18"/>
-    <tableColumn id="23" xr3:uid="{BF1BA44A-AEF4-439B-B94D-BEA93074ECC8}" name="Idioma: Achi19" dataDxfId="12"/>
-    <tableColumn id="24" xr3:uid="{3A80DE1E-914A-4009-8720-52D671FF2EA7}" name="Idioma: Achi20" dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{36D76FE2-A086-41F0-B374-A2D057379369}" name="Idioma: Achi21"/>
-    <tableColumn id="26" xr3:uid="{3811C04D-65CE-4238-B5FE-037312DF7863}" name="Idioma: Achi22" dataDxfId="10"/>
-    <tableColumn id="27" xr3:uid="{33CBF948-1192-4B90-A3E0-96D634E880C0}" name="Idioma: Achi23" dataDxfId="9"/>
-    <tableColumn id="28" xr3:uid="{C06A5A6E-8467-4422-9214-8CE511D9540F}" name="Idioma: Achi24" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{94E41923-7A12-4AAE-84D2-A137F6BCE73B}" name="Idioma: Achi25" dataDxfId="7"/>
-    <tableColumn id="30" xr3:uid="{26942C0E-101B-4533-B722-4177F2FE58F3}" name="Idioma: Achi26" dataDxfId="6"/>
-    <tableColumn id="31" xr3:uid="{5044A39A-D77E-4345-9BF3-52D306DC2F69}" name="Idioma: Achi27" dataDxfId="5"/>
-    <tableColumn id="32" xr3:uid="{8A6160B6-AFF0-46AA-B4E2-58874E72B5E6}" name="Idioma: Achi28" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{D20059DB-828B-4E32-92D3-CAAC11C4A2D4}" name="Idioma: Achi29" dataDxfId="3"/>
-    <tableColumn id="34" xr3:uid="{9AE670BF-9BBF-4596-9DC7-0BBF6DC1B262}" name="Idioma: Achi30" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F100979F-3DEB-47A8-AC27-3239F5292B0D}" name="Código" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{77BE0DE2-FB9C-46DE-8A22-0A3F3285F523}" name="Departamento" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{56C8F763-7255-43C9-A32B-08AAE7B03934}" name="Código2" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{FFEBBFD8-80A0-43F4-A6CA-53D5EF600F90}" name="Municipio" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{D332C6A9-1102-485A-8A88-BC6AE32DE5D1}" name="Total de población de 4 años y más" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{5D01132E-F4B6-4022-A654-F4C721F6AB74}" name="Idioma: Achi" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{E8012357-7764-4163-87A8-EDBE374304BC}" name="Idioma: Akateka" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{AC5805E3-4132-4488-A801-41801FB94FA7}" name="Idioma: Awakateka" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{BBE98D8E-4BA5-48C8-87D8-B73F0B61611E}" name="Idioma: Ch'orti'"/>
+    <tableColumn id="10" xr3:uid="{43A75F49-DD33-4990-B6AB-64B2DF271BF7}" name="Idioma: Chalchiteka" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{6658F474-C229-4AFA-A306-2CC690F45230}" name="Idioma: Chuj" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{079BC8EA-7380-49AB-93CF-421C08598250}" name="Idioma: Itza'" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{9129E33E-2C39-40D7-9DCB-F5E2700B31C8}" name="Idioma: Ixil" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{82D6DA95-BBF8-4707-885C-51F9A418825B}" name="Idioma: Jakalteko /Popti'" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{0ABFD467-1C4A-4E64-9689-303BB68D71C3}" name="Idioma: K'iche'" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{344C44A1-B74C-40B2-AD52-D63DC663EF65}" name="Idioma: Kaqchikel" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{9C9C7542-B7C9-48FB-936D-E851A45AB25F}" name="Idioma: Mam"/>
+    <tableColumn id="18" xr3:uid="{931D9635-2386-4CEE-BD8B-0836E6FF0D6A}" name="Idioma: Mopan" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{9543983D-D230-47C9-A9E4-D0BEB2A678CD}" name="Idioma: Poqomam"/>
+    <tableColumn id="20" xr3:uid="{7E313E26-8E52-48B6-A199-25E1648A8B30}" name="Idioma: Poqomchi'" dataDxfId="12"/>
+    <tableColumn id="21" xr3:uid="{5B8410ED-6963-494A-8D06-40A90F51BB3D}" name="Idioma: Q'anjob'al" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{37B486D7-4877-4D80-95B0-2C64DDF22984}" name="Idioma: Q'eqchi'"/>
+    <tableColumn id="23" xr3:uid="{BF1BA44A-AEF4-439B-B94D-BEA93074ECC8}" name="Idioma: Sakapulteka" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{3A80DE1E-914A-4009-8720-52D671FF2EA7}" name="Idioma: Sipakapense" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{36D76FE2-A086-41F0-B374-A2D057379369}" name="Idioma: Tektiteka"/>
+    <tableColumn id="26" xr3:uid="{3811C04D-65CE-4238-B5FE-037312DF7863}" name="Idioma: Tz'utujil" dataDxfId="8"/>
+    <tableColumn id="27" xr3:uid="{33CBF948-1192-4B90-A3E0-96D634E880C0}" name="Idioma: Uspanteka" dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{C06A5A6E-8467-4422-9214-8CE511D9540F}" name="Idioma: Xinka" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{94E41923-7A12-4AAE-84D2-A137F6BCE73B}" name="Idioma: Garífuna" dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{26942C0E-101B-4533-B722-4177F2FE58F3}" name="Idioma: Español" dataDxfId="4"/>
+    <tableColumn id="31" xr3:uid="{5044A39A-D77E-4345-9BF3-52D306DC2F69}" name="Idioma: Inglés" dataDxfId="3"/>
+    <tableColumn id="32" xr3:uid="{8A6160B6-AFF0-46AA-B4E2-58874E72B5E6}" name="Idioma: Señas" dataDxfId="2"/>
+    <tableColumn id="33" xr3:uid="{D20059DB-828B-4E32-92D3-CAAC11C4A2D4}" name="Idioma: Otro idioma" dataDxfId="1"/>
+    <tableColumn id="34" xr3:uid="{9AE670BF-9BBF-4596-9DC7-0BBF6DC1B262}" name="Idioma: No habla" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2917,97 +2930,97 @@
   </sheetPr>
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:AF6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="6" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="40" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
     </row>
-    <row r="6" spans="1:32" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
+    <row r="6" spans="1:32" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
@@ -3096,7 +3109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -3119,7 +3132,7 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
         <v>35</v>
@@ -3215,8 +3228,8 @@
         <v>13996</v>
       </c>
     </row>
-    <row r="9" spans="1:32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>1</v>
       </c>
@@ -3314,7 +3327,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="11" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>2</v>
       </c>
@@ -3412,7 +3425,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>3</v>
       </c>
@@ -3510,7 +3523,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>4</v>
       </c>
@@ -3608,7 +3621,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="14" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>5</v>
       </c>
@@ -3706,7 +3719,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="15" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>6</v>
       </c>
@@ -3804,7 +3817,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>7</v>
       </c>
@@ -3902,7 +3915,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="17" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>8</v>
       </c>
@@ -4000,7 +4013,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="18" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>9</v>
       </c>
@@ -4098,7 +4111,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="19" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>10</v>
       </c>
@@ -4196,7 +4209,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="20" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>11</v>
       </c>
@@ -4294,7 +4307,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>12</v>
       </c>
@@ -4392,7 +4405,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="22" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>13</v>
       </c>
@@ -4490,7 +4503,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="23" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>14</v>
       </c>
@@ -4588,7 +4601,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="24" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>15</v>
       </c>
@@ -4686,7 +4699,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="25" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>16</v>
       </c>
@@ -4784,7 +4797,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="26" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>17</v>
       </c>
@@ -4882,7 +4895,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="27" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>18</v>
       </c>
@@ -4980,7 +4993,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="28" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>19</v>
       </c>
@@ -5078,7 +5091,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>20</v>
       </c>
@@ -5176,7 +5189,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>21</v>
       </c>
@@ -5274,7 +5287,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>22</v>
       </c>
@@ -5372,7 +5385,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -5406,7 +5419,7 @@
       <c r="AE32" s="22"/>
       <c r="AF32" s="22"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="23" t="s">
         <v>59</v>
       </c>
@@ -5436,143 +5449,434 @@
   </sheetPr>
   <dimension ref="A1:AH346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P307" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB354" sqref="AB354"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="6" customWidth="1"/>
-    <col min="7" max="13" width="15.140625" style="6" customWidth="1"/>
-    <col min="14" max="34" width="16.28515625" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="6" customWidth="1"/>
+    <col min="7" max="13" width="15.109375" style="6" customWidth="1"/>
+    <col min="14" max="34" width="16.33203125" style="6" customWidth="1"/>
+    <col min="35" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="24"/>
       <c r="D1" s="5"/>
-      <c r="Q1" s="4"/>
+      <c r="F1" s="51" t="str">
+        <f>+F2&amp;F3</f>
+        <v>Idioma: Achi</v>
+      </c>
+      <c r="G1" s="51" t="str">
+        <f t="shared" ref="G1:AH1" si="0">+G2&amp;G3</f>
+        <v>Idioma: Akateka</v>
+      </c>
+      <c r="H1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Awakateka</v>
+      </c>
+      <c r="I1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Ch'orti'</v>
+      </c>
+      <c r="J1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Chalchiteka</v>
+      </c>
+      <c r="K1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Chuj</v>
+      </c>
+      <c r="L1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Itza'</v>
+      </c>
+      <c r="M1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Ixil</v>
+      </c>
+      <c r="N1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Jakalteko /Popti'</v>
+      </c>
+      <c r="O1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: K'iche'</v>
+      </c>
+      <c r="P1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Kaqchikel</v>
+      </c>
+      <c r="Q1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Mam</v>
+      </c>
+      <c r="R1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Mopan</v>
+      </c>
+      <c r="S1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Poqomam</v>
+      </c>
+      <c r="T1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Poqomchi'</v>
+      </c>
+      <c r="U1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Q'anjob'al</v>
+      </c>
+      <c r="V1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Q'eqchi'</v>
+      </c>
+      <c r="W1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Sakapulteka</v>
+      </c>
+      <c r="X1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Sipakapense</v>
+      </c>
+      <c r="Y1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Tektiteka</v>
+      </c>
+      <c r="Z1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Tz'utujil</v>
+      </c>
+      <c r="AA1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Uspanteka</v>
+      </c>
+      <c r="AB1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Xinka</v>
+      </c>
+      <c r="AC1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Garífuna</v>
+      </c>
+      <c r="AD1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Español</v>
+      </c>
+      <c r="AE1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Inglés</v>
+      </c>
+      <c r="AF1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Señas</v>
+      </c>
+      <c r="AG1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: Otro idioma</v>
+      </c>
+      <c r="AH1" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>Idioma: No habla</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="25"/>
+      <c r="F2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="T2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="U2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="V2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="W2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH2" s="51" t="s">
+        <v>384</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="42" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>382</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -5676,7 +5980,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -5780,7 +6084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -5884,7 +6188,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -5988,7 +6292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -6092,7 +6396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -6196,7 +6500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1</v>
       </c>
@@ -6300,7 +6604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>1</v>
       </c>
@@ -6404,7 +6708,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>1</v>
       </c>
@@ -6508,7 +6812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -6612,7 +6916,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>1</v>
       </c>
@@ -6716,7 +7020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -6820,7 +7124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -6924,7 +7228,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -7028,7 +7332,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -7132,7 +7436,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -7236,7 +7540,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -7340,7 +7644,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -7444,7 +7748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>2</v>
       </c>
@@ -7548,7 +7852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>2</v>
       </c>
@@ -7652,7 +7956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>2</v>
       </c>
@@ -7756,7 +8060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>2</v>
       </c>
@@ -7860,7 +8164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>2</v>
       </c>
@@ -7964,7 +8268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2</v>
       </c>
@@ -8068,7 +8372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>2</v>
       </c>
@@ -8172,7 +8476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>3</v>
       </c>
@@ -8276,7 +8580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>3</v>
       </c>
@@ -8380,7 +8684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>3</v>
       </c>
@@ -8484,7 +8788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -8588,7 +8892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>3</v>
       </c>
@@ -8692,7 +8996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>3</v>
       </c>
@@ -8796,7 +9100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>3</v>
       </c>
@@ -8900,7 +9204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>3</v>
       </c>
@@ -9004,7 +9308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>3</v>
       </c>
@@ -9108,7 +9412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>3</v>
       </c>
@@ -9212,7 +9516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>3</v>
       </c>
@@ -9316,7 +9620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>3</v>
       </c>
@@ -9420,7 +9724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>3</v>
       </c>
@@ -9524,7 +9828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>3</v>
       </c>
@@ -9628,7 +9932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>3</v>
       </c>
@@ -9732,7 +10036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>3</v>
       </c>
@@ -9836,7 +10140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>4</v>
       </c>
@@ -9940,7 +10244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>4</v>
       </c>
@@ -10044,7 +10348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>4</v>
       </c>
@@ -10148,7 +10452,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>4</v>
       </c>
@@ -10252,7 +10556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>4</v>
       </c>
@@ -10356,7 +10660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>4</v>
       </c>
@@ -10460,7 +10764,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>4</v>
       </c>
@@ -10564,7 +10868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>4</v>
       </c>
@@ -10668,7 +10972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>4</v>
       </c>
@@ -10772,7 +11076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>4</v>
       </c>
@@ -10876,7 +11180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>4</v>
       </c>
@@ -10980,7 +11284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>4</v>
       </c>
@@ -11084,7 +11388,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>4</v>
       </c>
@@ -11188,7 +11492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>4</v>
       </c>
@@ -11292,7 +11596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>4</v>
       </c>
@@ -11396,7 +11700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>4</v>
       </c>
@@ -11500,7 +11804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>5</v>
       </c>
@@ -11604,7 +11908,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>5</v>
       </c>
@@ -11708,7 +12012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>5</v>
       </c>
@@ -11812,7 +12116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>5</v>
       </c>
@@ -11916,7 +12220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>5</v>
       </c>
@@ -12020,7 +12324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>5</v>
       </c>
@@ -12124,7 +12428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>5</v>
       </c>
@@ -12228,7 +12532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>5</v>
       </c>
@@ -12332,7 +12636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>5</v>
       </c>
@@ -12436,7 +12740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>5</v>
       </c>
@@ -12540,7 +12844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>5</v>
       </c>
@@ -12644,7 +12948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>5</v>
       </c>
@@ -12748,7 +13052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>5</v>
       </c>
@@ -12852,7 +13156,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>5</v>
       </c>
@@ -12956,7 +13260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>6</v>
       </c>
@@ -13060,7 +13364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>6</v>
       </c>
@@ -13164,7 +13468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>6</v>
       </c>
@@ -13268,7 +13572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>6</v>
       </c>
@@ -13372,7 +13676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>6</v>
       </c>
@@ -13476,7 +13780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>6</v>
       </c>
@@ -13580,7 +13884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>6</v>
       </c>
@@ -13684,7 +13988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>6</v>
       </c>
@@ -13788,7 +14092,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>6</v>
       </c>
@@ -13892,7 +14196,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>6</v>
       </c>
@@ -13996,7 +14300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>6</v>
       </c>
@@ -14100,7 +14404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>6</v>
       </c>
@@ -14204,7 +14508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>6</v>
       </c>
@@ -14308,7 +14612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>6</v>
       </c>
@@ -14412,7 +14716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>7</v>
       </c>
@@ -14516,7 +14820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>7</v>
       </c>
@@ -14620,7 +14924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>7</v>
       </c>
@@ -14724,7 +15028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>7</v>
       </c>
@@ -14828,7 +15132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>7</v>
       </c>
@@ -14932,7 +15236,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>7</v>
       </c>
@@ -15036,7 +15340,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>7</v>
       </c>
@@ -15140,7 +15444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>7</v>
       </c>
@@ -15244,7 +15548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>7</v>
       </c>
@@ -15348,7 +15652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>7</v>
       </c>
@@ -15452,7 +15756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>7</v>
       </c>
@@ -15556,7 +15860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>7</v>
       </c>
@@ -15660,7 +15964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>7</v>
       </c>
@@ -15764,7 +16068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>7</v>
       </c>
@@ -15868,7 +16172,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>7</v>
       </c>
@@ -15972,7 +16276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>7</v>
       </c>
@@ -16076,7 +16380,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>7</v>
       </c>
@@ -16180,7 +16484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>7</v>
       </c>
@@ -16284,7 +16588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>7</v>
       </c>
@@ -16388,7 +16692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>8</v>
       </c>
@@ -16492,7 +16796,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>8</v>
       </c>
@@ -16596,7 +16900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>8</v>
       </c>
@@ -16700,7 +17004,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>8</v>
       </c>
@@ -16804,7 +17108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>8</v>
       </c>
@@ -16908,7 +17212,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>8</v>
       </c>
@@ -17012,7 +17316,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>8</v>
       </c>
@@ -17116,7 +17420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>8</v>
       </c>
@@ -17220,7 +17524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>9</v>
       </c>
@@ -17324,7 +17628,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>9</v>
       </c>
@@ -17428,7 +17732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>9</v>
       </c>
@@ -17532,7 +17836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>9</v>
       </c>
@@ -17636,7 +17940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>9</v>
       </c>
@@ -17740,7 +18044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>9</v>
       </c>
@@ -17844,7 +18148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>9</v>
       </c>
@@ -17948,7 +18252,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>9</v>
       </c>
@@ -18052,7 +18356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>9</v>
       </c>
@@ -18156,7 +18460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>9</v>
       </c>
@@ -18260,7 +18564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>9</v>
       </c>
@@ -18364,7 +18668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>9</v>
       </c>
@@ -18468,7 +18772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>9</v>
       </c>
@@ -18572,7 +18876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>9</v>
       </c>
@@ -18676,7 +18980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>9</v>
       </c>
@@ -18780,7 +19084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>9</v>
       </c>
@@ -18884,7 +19188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>9</v>
       </c>
@@ -18988,7 +19292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>9</v>
       </c>
@@ -19092,7 +19396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>9</v>
       </c>
@@ -19196,7 +19500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>9</v>
       </c>
@@ -19300,7 +19604,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>9</v>
       </c>
@@ -19404,7 +19708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>9</v>
       </c>
@@ -19508,7 +19812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>9</v>
       </c>
@@ -19612,7 +19916,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>9</v>
       </c>
@@ -19716,7 +20020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>10</v>
       </c>
@@ -19820,7 +20124,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>10</v>
       </c>
@@ -19924,7 +20228,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>10</v>
       </c>
@@ -20028,7 +20332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>10</v>
       </c>
@@ -20132,7 +20436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>10</v>
       </c>
@@ -20236,7 +20540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>10</v>
       </c>
@@ -20340,7 +20644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>10</v>
       </c>
@@ -20444,7 +20748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>10</v>
       </c>
@@ -20548,7 +20852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>10</v>
       </c>
@@ -20652,7 +20956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
         <v>10</v>
       </c>
@@ -20756,7 +21060,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
         <v>10</v>
       </c>
@@ -20860,7 +21164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
         <v>10</v>
       </c>
@@ -20964,7 +21268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
         <v>10</v>
       </c>
@@ -21068,7 +21372,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
         <v>10</v>
       </c>
@@ -21172,7 +21476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
         <v>10</v>
       </c>
@@ -21276,7 +21580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
         <v>10</v>
       </c>
@@ -21380,7 +21684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
         <v>10</v>
       </c>
@@ -21484,7 +21788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
         <v>10</v>
       </c>
@@ -21588,7 +21892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
         <v>10</v>
       </c>
@@ -21692,7 +21996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
         <v>10</v>
       </c>
@@ -21796,7 +22100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
         <v>10</v>
       </c>
@@ -21900,7 +22204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
         <v>11</v>
       </c>
@@ -22004,7 +22308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
         <v>11</v>
       </c>
@@ -22108,7 +22412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
         <v>11</v>
       </c>
@@ -22212,7 +22516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
         <v>11</v>
       </c>
@@ -22316,7 +22620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
         <v>11</v>
       </c>
@@ -22420,7 +22724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
         <v>11</v>
       </c>
@@ -22524,7 +22828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
         <v>11</v>
       </c>
@@ -22628,7 +22932,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
         <v>11</v>
       </c>
@@ -22732,7 +23036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
         <v>11</v>
       </c>
@@ -22836,7 +23140,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
         <v>12</v>
       </c>
@@ -22940,7 +23244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
         <v>12</v>
       </c>
@@ -23044,7 +23348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
         <v>12</v>
       </c>
@@ -23148,7 +23452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
         <v>12</v>
       </c>
@@ -23252,7 +23556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
         <v>12</v>
       </c>
@@ -23356,7 +23660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
         <v>12</v>
       </c>
@@ -23460,7 +23764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
         <v>12</v>
       </c>
@@ -23564,7 +23868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
         <v>12</v>
       </c>
@@ -23668,7 +23972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
         <v>12</v>
       </c>
@@ -23772,7 +24076,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
         <v>12</v>
       </c>
@@ -23876,7 +24180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
         <v>12</v>
       </c>
@@ -23980,7 +24284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
         <v>12</v>
       </c>
@@ -24084,7 +24388,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
         <v>12</v>
       </c>
@@ -24188,7 +24492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
         <v>12</v>
       </c>
@@ -24292,7 +24596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
         <v>12</v>
       </c>
@@ -24396,7 +24700,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
         <v>12</v>
       </c>
@@ -24500,7 +24804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
         <v>12</v>
       </c>
@@ -24604,7 +24908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
         <v>12</v>
       </c>
@@ -24708,7 +25012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
         <v>12</v>
       </c>
@@ -24812,7 +25116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
         <v>12</v>
       </c>
@@ -24916,7 +25220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
         <v>12</v>
       </c>
@@ -25020,7 +25324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
         <v>12</v>
       </c>
@@ -25124,7 +25428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
         <v>12</v>
       </c>
@@ -25228,7 +25532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
         <v>12</v>
       </c>
@@ -25332,7 +25636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
         <v>12</v>
       </c>
@@ -25436,7 +25740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
         <v>12</v>
       </c>
@@ -25540,7 +25844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
         <v>12</v>
       </c>
@@ -25644,7 +25948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
         <v>12</v>
       </c>
@@ -25748,7 +26052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
         <v>12</v>
       </c>
@@ -25852,7 +26156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
         <v>12</v>
       </c>
@@ -25956,7 +26260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
         <v>13</v>
       </c>
@@ -26060,7 +26364,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
         <v>13</v>
       </c>
@@ -26164,7 +26468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
         <v>13</v>
       </c>
@@ -26268,7 +26572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
         <v>13</v>
       </c>
@@ -26372,7 +26676,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
         <v>13</v>
       </c>
@@ -26476,7 +26780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
         <v>13</v>
       </c>
@@ -26580,7 +26884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
         <v>13</v>
       </c>
@@ -26684,7 +26988,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
         <v>13</v>
       </c>
@@ -26788,7 +27092,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
         <v>13</v>
       </c>
@@ -26892,7 +27196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
         <v>13</v>
       </c>
@@ -26996,7 +27300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
         <v>13</v>
       </c>
@@ -27100,7 +27404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
         <v>13</v>
       </c>
@@ -27204,7 +27508,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
         <v>13</v>
       </c>
@@ -27308,7 +27612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
         <v>13</v>
       </c>
@@ -27412,7 +27716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
         <v>13</v>
       </c>
@@ -27516,7 +27820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
         <v>13</v>
       </c>
@@ -27620,7 +27924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
         <v>13</v>
       </c>
@@ -27724,7 +28028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
         <v>13</v>
       </c>
@@ -27828,7 +28132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
         <v>13</v>
       </c>
@@ -27932,7 +28236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
         <v>13</v>
       </c>
@@ -28036,7 +28340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
         <v>13</v>
       </c>
@@ -28140,7 +28444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
         <v>13</v>
       </c>
@@ -28244,7 +28548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
         <v>13</v>
       </c>
@@ -28348,7 +28652,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
         <v>13</v>
       </c>
@@ -28452,7 +28756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
         <v>13</v>
       </c>
@@ -28556,7 +28860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
         <v>13</v>
       </c>
@@ -28660,7 +28964,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
         <v>13</v>
       </c>
@@ -28764,7 +29068,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
         <v>13</v>
       </c>
@@ -28868,7 +29172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
         <v>13</v>
       </c>
@@ -28972,7 +29276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
         <v>13</v>
       </c>
@@ -29076,7 +29380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
         <v>13</v>
       </c>
@@ -29180,7 +29484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
         <v>13</v>
       </c>
@@ -29284,7 +29588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
         <v>13</v>
       </c>
@@ -29388,7 +29692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
         <v>14</v>
       </c>
@@ -29492,7 +29796,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
         <v>14</v>
       </c>
@@ -29596,7 +29900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
         <v>14</v>
       </c>
@@ -29700,7 +30004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
         <v>14</v>
       </c>
@@ -29804,7 +30108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
         <v>14</v>
       </c>
@@ -29908,7 +30212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
         <v>14</v>
       </c>
@@ -30012,7 +30316,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
         <v>14</v>
       </c>
@@ -30116,7 +30420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
         <v>14</v>
       </c>
@@ -30220,7 +30524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
         <v>14</v>
       </c>
@@ -30324,7 +30628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
         <v>14</v>
       </c>
@@ -30428,7 +30732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
         <v>14</v>
       </c>
@@ -30532,7 +30836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
         <v>14</v>
       </c>
@@ -30636,7 +30940,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
         <v>14</v>
       </c>
@@ -30740,7 +31044,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
         <v>14</v>
       </c>
@@ -30844,7 +31148,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
         <v>14</v>
       </c>
@@ -30948,7 +31252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
         <v>14</v>
       </c>
@@ -31052,7 +31356,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
         <v>14</v>
       </c>
@@ -31156,7 +31460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
         <v>14</v>
       </c>
@@ -31260,7 +31564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
         <v>14</v>
       </c>
@@ -31364,7 +31668,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
         <v>14</v>
       </c>
@@ -31468,7 +31772,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
         <v>14</v>
       </c>
@@ -31572,7 +31876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
         <v>15</v>
       </c>
@@ -31676,7 +31980,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
         <v>15</v>
       </c>
@@ -31780,7 +32084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
         <v>15</v>
       </c>
@@ -31884,7 +32188,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
         <v>15</v>
       </c>
@@ -31988,7 +32292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
         <v>15</v>
       </c>
@@ -32092,7 +32396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
         <v>15</v>
       </c>
@@ -32196,7 +32500,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
         <v>15</v>
       </c>
@@ -32300,7 +32604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
         <v>15</v>
       </c>
@@ -32404,7 +32708,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
         <v>16</v>
       </c>
@@ -32508,7 +32812,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
         <v>16</v>
       </c>
@@ -32612,7 +32916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
         <v>16</v>
       </c>
@@ -32716,7 +33020,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
         <v>16</v>
       </c>
@@ -32820,7 +33124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
         <v>16</v>
       </c>
@@ -32924,7 +33228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
         <v>16</v>
       </c>
@@ -33028,7 +33332,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
         <v>16</v>
       </c>
@@ -33132,7 +33436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
         <v>16</v>
       </c>
@@ -33236,7 +33540,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
         <v>16</v>
       </c>
@@ -33340,7 +33644,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
         <v>16</v>
       </c>
@@ -33444,7 +33748,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
         <v>16</v>
       </c>
@@ -33548,7 +33852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
         <v>16</v>
       </c>
@@ -33652,7 +33956,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
         <v>16</v>
       </c>
@@ -33756,7 +34060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
         <v>16</v>
       </c>
@@ -33860,7 +34164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
         <v>16</v>
       </c>
@@ -33964,7 +34268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
         <v>16</v>
       </c>
@@ -34068,7 +34372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
         <v>16</v>
       </c>
@@ -34172,7 +34476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
         <v>17</v>
       </c>
@@ -34276,7 +34580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
         <v>17</v>
       </c>
@@ -34380,7 +34684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
         <v>17</v>
       </c>
@@ -34484,7 +34788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
         <v>17</v>
       </c>
@@ -34588,7 +34892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
         <v>17</v>
       </c>
@@ -34692,7 +34996,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
         <v>17</v>
       </c>
@@ -34796,7 +35100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
         <v>17</v>
       </c>
@@ -34900,7 +35204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
         <v>17</v>
       </c>
@@ -35004,7 +35308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
         <v>17</v>
       </c>
@@ -35108,7 +35412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
         <v>17</v>
       </c>
@@ -35212,7 +35516,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
         <v>17</v>
       </c>
@@ -35316,7 +35620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
         <v>17</v>
       </c>
@@ -35420,7 +35724,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
         <v>17</v>
       </c>
@@ -35524,7 +35828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
         <v>17</v>
       </c>
@@ -35628,7 +35932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
         <v>18</v>
       </c>
@@ -35732,7 +36036,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
         <v>18</v>
       </c>
@@ -35836,7 +36140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
         <v>18</v>
       </c>
@@ -35940,7 +36244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
         <v>18</v>
       </c>
@@ -36044,7 +36348,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
         <v>18</v>
       </c>
@@ -36148,7 +36452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
         <v>19</v>
       </c>
@@ -36252,7 +36556,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
         <v>19</v>
       </c>
@@ -36356,7 +36660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
         <v>19</v>
       </c>
@@ -36460,7 +36764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
         <v>19</v>
       </c>
@@ -36564,7 +36868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
         <v>19</v>
       </c>
@@ -36668,7 +36972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
         <v>19</v>
       </c>
@@ -36772,7 +37076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
         <v>19</v>
       </c>
@@ -36876,7 +37180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
         <v>19</v>
       </c>
@@ -36980,7 +37284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
         <v>19</v>
       </c>
@@ -37084,7 +37388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
         <v>19</v>
       </c>
@@ -37188,7 +37492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
         <v>19</v>
       </c>
@@ -37292,7 +37596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
         <v>20</v>
       </c>
@@ -37396,7 +37700,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
         <v>20</v>
       </c>
@@ -37500,7 +37804,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
         <v>20</v>
       </c>
@@ -37604,7 +37908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
         <v>20</v>
       </c>
@@ -37708,7 +38012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
         <v>20</v>
       </c>
@@ -37812,7 +38116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
         <v>20</v>
       </c>
@@ -37916,7 +38220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
         <v>20</v>
       </c>
@@ -38020,7 +38324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="317" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
         <v>20</v>
       </c>
@@ -38124,7 +38428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
         <v>20</v>
       </c>
@@ -38228,7 +38532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
         <v>20</v>
       </c>
@@ -38332,7 +38636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
         <v>20</v>
       </c>
@@ -38436,7 +38740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
         <v>21</v>
       </c>
@@ -38540,7 +38844,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="322" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A322" s="8">
         <v>21</v>
       </c>
@@ -38644,7 +38948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="323" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
         <v>21</v>
       </c>
@@ -38748,7 +39052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A324" s="8">
         <v>21</v>
       </c>
@@ -38852,7 +39156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
         <v>21</v>
       </c>
@@ -38956,7 +39260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A326" s="8">
         <v>21</v>
       </c>
@@ -39060,7 +39364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="327" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
         <v>21</v>
       </c>
@@ -39164,7 +39468,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="328" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A328" s="8">
         <v>22</v>
       </c>
@@ -39268,7 +39572,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="329" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A329" s="8">
         <v>22</v>
       </c>
@@ -39372,7 +39676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A330" s="8">
         <v>22</v>
       </c>
@@ -39476,7 +39780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="331" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
         <v>22</v>
       </c>
@@ -39580,7 +39884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A332" s="8">
         <v>22</v>
       </c>
@@ -39684,7 +39988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="333" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A333" s="8">
         <v>22</v>
       </c>
@@ -39788,7 +40092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
         <v>22</v>
       </c>
@@ -39892,7 +40196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
         <v>22</v>
       </c>
@@ -39996,7 +40300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
         <v>22</v>
       </c>
@@ -40100,7 +40404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A337" s="8">
         <v>22</v>
       </c>
@@ -40204,7 +40508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A338" s="8">
         <v>22</v>
       </c>
@@ -40308,7 +40612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
         <v>22</v>
       </c>
@@ -40412,7 +40716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A340" s="8">
         <v>22</v>
       </c>
@@ -40516,7 +40820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
         <v>22</v>
       </c>
@@ -40620,7 +40924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A342" s="8">
         <v>22</v>
       </c>
@@ -40724,7 +41028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
         <v>22</v>
       </c>
@@ -40828,7 +41132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A344" s="19">
         <v>22</v>
       </c>
@@ -40932,48 +41236,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A345" s="45"/>
+    <row r="345" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A345" s="40"/>
       <c r="B345" s="9"/>
       <c r="D345" s="27"/>
     </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A346" s="45" t="s">
+    <row r="346" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A346" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B346" s="46"/>
-      <c r="C346" s="47"/>
+      <c r="B346" s="41"/>
+      <c r="C346" s="42"/>
       <c r="D346" s="32"/>
-      <c r="E346" s="48"/>
-      <c r="F346" s="48"/>
-      <c r="G346" s="48"/>
-      <c r="H346" s="49"/>
-      <c r="I346" s="50"/>
-      <c r="J346" s="48"/>
-      <c r="K346" s="49"/>
-      <c r="L346" s="49"/>
-      <c r="M346" s="49"/>
-      <c r="N346" s="49"/>
-      <c r="O346" s="48"/>
-      <c r="P346" s="48"/>
-      <c r="Q346" s="50"/>
-      <c r="R346" s="49"/>
-      <c r="S346" s="50"/>
-      <c r="T346" s="48"/>
-      <c r="U346" s="49"/>
-      <c r="V346" s="50"/>
-      <c r="W346" s="49"/>
-      <c r="X346" s="49"/>
-      <c r="Y346" s="50"/>
-      <c r="Z346" s="48"/>
-      <c r="AA346" s="48"/>
-      <c r="AB346" s="48"/>
-      <c r="AC346" s="48"/>
-      <c r="AD346" s="48"/>
-      <c r="AE346" s="48"/>
-      <c r="AF346" s="48"/>
-      <c r="AG346" s="48"/>
-      <c r="AH346" s="48"/>
+      <c r="E346" s="43"/>
+      <c r="F346" s="43"/>
+      <c r="G346" s="43"/>
+      <c r="H346" s="44"/>
+      <c r="I346" s="45"/>
+      <c r="J346" s="43"/>
+      <c r="K346" s="44"/>
+      <c r="L346" s="44"/>
+      <c r="M346" s="44"/>
+      <c r="N346" s="44"/>
+      <c r="O346" s="43"/>
+      <c r="P346" s="43"/>
+      <c r="Q346" s="45"/>
+      <c r="R346" s="44"/>
+      <c r="S346" s="45"/>
+      <c r="T346" s="43"/>
+      <c r="U346" s="44"/>
+      <c r="V346" s="45"/>
+      <c r="W346" s="44"/>
+      <c r="X346" s="44"/>
+      <c r="Y346" s="45"/>
+      <c r="Z346" s="43"/>
+      <c r="AA346" s="43"/>
+      <c r="AB346" s="43"/>
+      <c r="AC346" s="43"/>
+      <c r="AD346" s="43"/>
+      <c r="AE346" s="43"/>
+      <c r="AF346" s="43"/>
+      <c r="AG346" s="43"/>
+      <c r="AH346" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
